--- a/medicine/Psychotrope/Brasserie_Inter-Pol/Brasserie_Inter-Pol.xlsx
+++ b/medicine/Psychotrope/Brasserie_Inter-Pol/Brasserie_Inter-Pol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Inter-Pol est une microbrasserie belge située à Mont dans la commune de Houffalize en province de Luxembourg.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1999, Pol Ghekiere et sa femme Tine, un couple venant de Flandre, achètent dans le petit village ardennais de Mont une forge de 1710 appelée la Vieille Forge qu'ils transforment en chambres d'hôtes. Travaillant comme guide bilingue à la brasserie d'Achouffe toute proche, l'idée vient à Pol Ghekiere d'essayer de brasser lui-même sa propre bière. En 2010, la brasserie Inter-Pol est officiellement mise en service et brasse deux bières, une noire et une blanche[1]. Ces bières sont produites en quantité limitée et achetées ou consommées sur place.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1999, Pol Ghekiere et sa femme Tine, un couple venant de Flandre, achètent dans le petit village ardennais de Mont une forge de 1710 appelée la Vieille Forge qu'ils transforment en chambres d'hôtes. Travaillant comme guide bilingue à la brasserie d'Achouffe toute proche, l'idée vient à Pol Ghekiere d'essayer de brasser lui-même sa propre bière. En 2010, la brasserie Inter-Pol est officiellement mise en service et brasse deux bières, une noire et une blanche. Ces bières sont produites en quantité limitée et achetées ou consommées sur place.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Witte Pol, une bière blanche titrant 5,6 % en volume d'alcool.
 Zwarte Pol, un stout titrant 6,5 % en volume d'alcool.</t>
